--- a/results/FrequencyTables/26581162_sg129R.xlsx
+++ b/results/FrequencyTables/26581162_sg129R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00717213114754098</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="I2">
-        <v>0.880434782608696</v>
+        <v>0.839139344262295</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00717213114754098</v>
       </c>
       <c r="Q2">
-        <v>0.369565217391304</v>
+        <v>0.211065573770492</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.98155737704918</v>
       </c>
       <c r="T2">
-        <v>0.978260869565217</v>
+        <v>0.983606557377049</v>
       </c>
       <c r="U2">
-        <v>0.0760869565217391</v>
+        <v>0.040983606557377</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.978483606557377</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.891304347826087</v>
+        <v>0.862704918032787</v>
       </c>
       <c r="C3">
-        <v>0.934782608695652</v>
+        <v>0.939549180327869</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0153688524590164</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0245901639344262</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -560,52 +560,52 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0543478260869565</v>
+        <v>0.040983606557377</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="O3">
-        <v>0.989130434782609</v>
+        <v>0.986680327868853</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00512295081967213</v>
       </c>
       <c r="R3">
-        <v>0.989130434782609</v>
+        <v>0.973360655737705</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="T3">
-        <v>0.0108695652173913</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="V3">
-        <v>0.945652173913043</v>
+        <v>0.857581967213115</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00512295081967213</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0869565217391304</v>
+        <v>0.125</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0217391304347826</v>
+        <v>0.00717213114754098</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.995901639344262</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.994877049180328</v>
       </c>
       <c r="I4">
-        <v>0.0652173913043478</v>
+        <v>0.111680327868852</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.997950819672131</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.995901639344262</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.992827868852459</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="U4">
-        <v>0.902173913043478</v>
+        <v>0.945696721311475</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00717213114754098</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,31 +687,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0217391304347826</v>
+        <v>0.00717213114754098</v>
       </c>
       <c r="C5">
-        <v>0.0652173913043478</v>
+        <v>0.0543032786885246</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.979508196721312</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.99077868852459</v>
       </c>
       <c r="F5">
-        <v>0.978260869565217</v>
+        <v>0.967213114754098</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00102459016393443</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.997950819672131</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -720,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.988729508196721</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
       <c r="O5">
-        <v>0.0108695652173913</v>
+        <v>0.00922131147540984</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.989754098360656</v>
       </c>
       <c r="Q5">
-        <v>0.630434782608696</v>
+        <v>0.779713114754098</v>
       </c>
       <c r="R5">
-        <v>0.0108695652173913</v>
+        <v>0.0194672131147541</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00717213114754098</v>
       </c>
       <c r="T5">
-        <v>0.0108695652173913</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="U5">
-        <v>0.0217391304347826</v>
+        <v>0.0102459016393443</v>
       </c>
       <c r="V5">
-        <v>0.0543478260869565</v>
+        <v>0.135245901639344</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.987704918032787</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00307377049180328</v>
       </c>
     </row>
   </sheetData>
